--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,22 +99,16 @@
     <t>BooleanType[false]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>&lt; 284009009 |Route of administration value (qualifier value)| minus &gt; (&lt; 284009009 |Route of administration value (qualifier value)|)</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://standardterms.edqm.eu</t>
   </si>
 </sst>
 </file>
@@ -381,7 +375,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,25 +387,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>31</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -423,10 +405,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
+++ b/FinalisationMappingPosologie/ig/ValueSet-fr-route-of-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
